--- a/institute.xlsx
+++ b/institute.xlsx
@@ -16,14 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Institute</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
     <t>Pincode</t>
   </si>
   <si>
+    <t>Website_link</t>
+  </si>
+  <si>
     <t>IITJ</t>
   </si>
   <si>
@@ -36,6 +54,24 @@
     <t>AIMSS-D</t>
   </si>
   <si>
+    <t>iitj.ac</t>
+  </si>
+  <si>
+    <t>mbm.ac</t>
+  </si>
+  <si>
+    <t>aimssj.ac</t>
+  </si>
+  <si>
+    <t>aimssd.ac</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
     <t>Jodh</t>
   </si>
   <si>
@@ -51,13 +87,7 @@
     <t>dw2d</t>
   </si>
   <si>
-    <t>institutelocation</t>
-  </si>
-  <si>
-    <t>instituteContact</t>
-  </si>
-  <si>
-    <t>instituteemail</t>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -101,9 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,100 +434,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2736736</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>2111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>32111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>22111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>2222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>21111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>22111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>23456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>21111</v>
-      </c>
-      <c r="E4">
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
         <v>221212</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>77777</v>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
